--- a/需求分类结果/关于Bugzilla的数据汇总/Activity StreamNewtab.xlsx
+++ b/需求分类结果/关于Bugzilla的数据汇总/Activity StreamNewtab.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="Rb08dbf9f3d0f4f68"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471">
   <si>
     <t>字段1_文本</t>
   </si>
@@ -1409,24 +1412,202 @@
   </si>
   <si>
     <t>Add telemetry for search placeholder first painted</t>
+  </si>
+  <si>
+    <t>添加自动测试（各种内容）</t>
+  </si>
+  <si>
+    <t>添加设置的隐藏功能</t>
+  </si>
+  <si>
+    <t>删除历史的功能有问题</t>
+  </si>
+  <si>
+    <t>收藏网页的时候自动生成的名字太蠢</t>
+  </si>
+  <si>
+    <t>多次被删除的网页应不再出现</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,11 +1616,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1449,44 +1817,603 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="1" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" defaultColWidth="20"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="5" max="5" width="12.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="77.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +2465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +2491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +2517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1616,7 +2543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1642,7 +2569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1668,7 +2595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1694,7 +2621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +2647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1746,7 +2673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1772,7 +2699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1798,7 +2725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +2751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1850,7 +2777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1876,7 +2803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1902,7 +2829,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -1928,7 +2855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1954,7 +2881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1980,7 +2907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -2006,7 +2933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
@@ -2032,7 +2959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
@@ -2058,7 +2985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
@@ -2084,7 +3011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -2110,7 +3037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -2136,7 +3063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -2162,7 +3089,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -2188,7 +3115,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -2214,7 +3141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -2240,7 +3167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
@@ -2266,7 +3193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
@@ -2292,7 +3219,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>105</v>
       </c>
@@ -2318,7 +3245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
@@ -2344,7 +3271,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2370,7 +3297,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>114</v>
       </c>
@@ -2396,7 +3323,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>117</v>
       </c>
@@ -2422,7 +3349,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>120</v>
       </c>
@@ -2448,7 +3375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
@@ -2474,7 +3401,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>126</v>
       </c>
@@ -2500,7 +3427,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>129</v>
       </c>
@@ -2526,7 +3453,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>132</v>
       </c>
@@ -2552,7 +3479,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>135</v>
       </c>
@@ -2578,7 +3505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>138</v>
       </c>
@@ -2604,7 +3531,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>141</v>
       </c>
@@ -2630,7 +3557,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>144</v>
       </c>
@@ -2656,7 +3583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>147</v>
       </c>
@@ -2682,7 +3609,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
         <v>150</v>
       </c>
@@ -2708,7 +3635,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>153</v>
       </c>
@@ -2734,7 +3661,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>156</v>
       </c>
@@ -2760,7 +3687,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
@@ -2786,7 +3713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -2812,7 +3739,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>165</v>
       </c>
@@ -2838,7 +3765,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>168</v>
       </c>
@@ -2864,7 +3791,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>171</v>
       </c>
@@ -2890,7 +3817,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
@@ -2916,7 +3843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>177</v>
       </c>
@@ -2942,7 +3869,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>180</v>
       </c>
@@ -2968,7 +3895,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
         <v>183</v>
       </c>
@@ -2994,7 +3921,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>186</v>
       </c>
@@ -3020,7 +3947,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>189</v>
       </c>
@@ -3046,7 +3973,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
         <v>192</v>
       </c>
@@ -3072,7 +3999,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
         <v>195</v>
       </c>
@@ -3098,7 +4025,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
         <v>198</v>
       </c>
@@ -3124,7 +4051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>201</v>
       </c>
@@ -3150,7 +4077,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
         <v>204</v>
       </c>
@@ -3176,7 +4103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
         <v>207</v>
       </c>
@@ -3202,7 +4129,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>210</v>
       </c>
@@ -3228,7 +4155,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
         <v>213</v>
       </c>
@@ -3254,7 +4181,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
         <v>216</v>
       </c>
@@ -3280,7 +4207,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
         <v>219</v>
       </c>
@@ -3306,7 +4233,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
         <v>222</v>
       </c>
@@ -3332,7 +4259,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
         <v>225</v>
       </c>
@@ -3358,7 +4285,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
         <v>228</v>
       </c>
@@ -3384,7 +4311,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
         <v>231</v>
       </c>
@@ -3410,7 +4337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
         <v>234</v>
       </c>
@@ -3436,7 +4363,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
         <v>237</v>
       </c>
@@ -3462,7 +4389,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
         <v>240</v>
       </c>
@@ -3488,7 +4415,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
         <v>243</v>
       </c>
@@ -3514,7 +4441,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
         <v>246</v>
       </c>
@@ -3540,7 +4467,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
         <v>249</v>
       </c>
@@ -3566,7 +4493,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>252</v>
       </c>
@@ -3592,7 +4519,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>255</v>
       </c>
@@ -3618,7 +4545,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>258</v>
       </c>
@@ -3644,7 +4571,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>261</v>
       </c>
@@ -3670,7 +4597,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
         <v>264</v>
       </c>
@@ -3696,7 +4623,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>267</v>
       </c>
@@ -3722,7 +4649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
         <v>270</v>
       </c>
@@ -3748,7 +4675,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
         <v>273</v>
       </c>
@@ -3774,7 +4701,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
         <v>276</v>
       </c>
@@ -3800,7 +4727,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
         <v>279</v>
       </c>
@@ -3826,7 +4753,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
         <v>282</v>
       </c>
@@ -3852,7 +4779,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
         <v>285</v>
       </c>
@@ -3878,7 +4805,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
         <v>288</v>
       </c>
@@ -3904,7 +4831,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
         <v>291</v>
       </c>
@@ -3930,7 +4857,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
         <v>294</v>
       </c>
@@ -3956,7 +4883,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
         <v>297</v>
       </c>
@@ -3982,7 +4909,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
         <v>300</v>
       </c>
@@ -4008,7 +4935,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
         <v>303</v>
       </c>
@@ -4034,7 +4961,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
         <v>306</v>
       </c>
@@ -4060,7 +4987,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
         <v>309</v>
       </c>
@@ -4086,7 +5013,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
         <v>312</v>
       </c>
@@ -4112,7 +5039,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
         <v>315</v>
       </c>
@@ -4138,7 +5065,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
         <v>318</v>
       </c>
@@ -4164,7 +5091,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
         <v>321</v>
       </c>
@@ -4190,7 +5117,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
         <v>324</v>
       </c>
@@ -4216,7 +5143,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
         <v>327</v>
       </c>
@@ -4242,7 +5169,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
         <v>330</v>
       </c>
@@ -4268,7 +5195,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
         <v>333</v>
       </c>
@@ -4294,7 +5221,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
         <v>336</v>
       </c>
@@ -4320,7 +5247,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
         <v>339</v>
       </c>
@@ -4346,7 +5273,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
         <v>342</v>
       </c>
@@ -4372,7 +5299,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
         <v>345</v>
       </c>
@@ -4398,7 +5325,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
         <v>348</v>
       </c>
@@ -4424,7 +5351,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
         <v>351</v>
       </c>
@@ -4450,7 +5377,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
         <v>354</v>
       </c>
@@ -4476,7 +5403,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
         <v>357</v>
       </c>
@@ -4502,7 +5429,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
         <v>360</v>
       </c>
@@ -4528,7 +5455,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
         <v>363</v>
       </c>
@@ -4554,7 +5481,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
         <v>366</v>
       </c>
@@ -4580,7 +5507,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
         <v>369</v>
       </c>
@@ -4606,7 +5533,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
         <v>373</v>
       </c>
@@ -4632,7 +5559,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
         <v>377</v>
       </c>
@@ -4658,7 +5585,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
         <v>380</v>
       </c>
@@ -4684,7 +5611,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
         <v>383</v>
       </c>
@@ -4710,7 +5637,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
         <v>386</v>
       </c>
@@ -4736,7 +5663,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
         <v>389</v>
       </c>
@@ -4762,7 +5689,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
         <v>392</v>
       </c>
@@ -4788,7 +5715,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
         <v>395</v>
       </c>
@@ -4814,7 +5741,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
         <v>398</v>
       </c>
@@ -4840,7 +5767,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
         <v>401</v>
       </c>
@@ -4866,7 +5793,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
         <v>404</v>
       </c>
@@ -4892,7 +5819,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
         <v>407</v>
       </c>
@@ -4918,7 +5845,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
         <v>410</v>
       </c>
@@ -4944,7 +5871,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
         <v>413</v>
       </c>
@@ -4970,7 +5897,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
         <v>416</v>
       </c>
@@ -4996,7 +5923,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
         <v>421</v>
       </c>
@@ -5022,7 +5949,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
         <v>425</v>
       </c>
@@ -5048,7 +5975,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
         <v>428</v>
       </c>
@@ -5074,7 +6001,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
         <v>431</v>
       </c>
@@ -5100,7 +6027,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
         <v>435</v>
       </c>
@@ -5126,7 +6053,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
         <v>438</v>
       </c>
@@ -5152,7 +6079,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
         <v>441</v>
       </c>
@@ -5178,7 +6105,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
         <v>444</v>
       </c>
@@ -5204,7 +6131,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
         <v>447</v>
       </c>
@@ -5230,7 +6157,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
         <v>450</v>
       </c>
@@ -5256,7 +6183,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
         <v>453</v>
       </c>
@@ -5282,7 +6209,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
         <v>456</v>
       </c>
@@ -5308,7 +6235,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
         <v>459</v>
       </c>
@@ -5334,7 +6261,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
         <v>463</v>
       </c>
@@ -5360,7 +6287,33 @@
         <v>464</v>
       </c>
     </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>